--- a/regulondb/collection/link/sRNA_Gene.xlsx
+++ b/regulondb/collection/link/sRNA_Gene.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="140" windowWidth="19400" windowHeight="7600"/>
+    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="sRNABindingSiteSet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="320">
-  <si>
-    <t>ipeX</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="323">
   <si>
     <t>ompF</t>
   </si>
@@ -63,9 +60,6 @@
     <t>IS128</t>
   </si>
   <si>
-    <t>sibA</t>
-  </si>
-  <si>
     <t>ibsA</t>
   </si>
   <si>
@@ -75,27 +69,18 @@
     <t>[IMP|W|Inferred from mutant phenotype],[IPI|W|Inferred from physical interaction],[HIFS|W|Human inference of function from sequence]</t>
   </si>
   <si>
-    <t>sibB</t>
-  </si>
-  <si>
     <t>ibsB</t>
   </si>
   <si>
     <t>ATGATGAAGCTACTCATCATCGTGGTGCTCTTAGTCATAAGCTTCCCCGCTTACTA</t>
   </si>
   <si>
-    <t>sibC</t>
-  </si>
-  <si>
     <t>ibsC</t>
   </si>
   <si>
     <t>ATGATGCGACTTGTCATCATACTGATTGTACTGTTACTCATAAGTTTCAGCGCTTATTA</t>
   </si>
   <si>
-    <t>omrB</t>
-  </si>
-  <si>
     <t>essD</t>
   </si>
   <si>
@@ -189,27 +174,18 @@
     <t>fecA</t>
   </si>
   <si>
-    <t>sdsR</t>
-  </si>
-  <si>
     <t>ryeA</t>
   </si>
   <si>
     <t>AAAAGAGACCGAACACGATTCCTGTATTCGGTCCAGGGAAATGGCTCTTGGGAGAGAGCCGTGCGCTAAAAGTTGGCATTAATGCAGGCTTAGTTGCCTTGCC</t>
   </si>
   <si>
-    <t>mcaS</t>
-  </si>
-  <si>
     <t>pgaA</t>
   </si>
   <si>
     <t>flhD</t>
   </si>
   <si>
-    <t>micC</t>
-  </si>
-  <si>
     <t>ATAAAAAAGCAAATAAAGGCATATAA</t>
   </si>
   <si>
@@ -222,9 +198,6 @@
     <t>C0614</t>
   </si>
   <si>
-    <t>glmY</t>
-  </si>
-  <si>
     <t>glmS</t>
   </si>
   <si>
@@ -234,9 +207,6 @@
     <t>represses processing</t>
   </si>
   <si>
-    <t>gadY</t>
-  </si>
-  <si>
     <t>gadX</t>
   </si>
   <si>
@@ -249,33 +219,21 @@
     <t>[GEA|W|Gene expression analysis],[IMP|W|Inferred from mutant phenotype],[IPI|W|Inferred from physical interaction],[HIFS|W|Human inference of function from sequence]</t>
   </si>
   <si>
-    <t>rdlD</t>
-  </si>
-  <si>
     <t>ldrD</t>
   </si>
   <si>
-    <t>sibD</t>
-  </si>
-  <si>
     <t>ibsD</t>
   </si>
   <si>
     <t>TGATGAAGCTCGTCATCATACTGATTGTGTTGTTACTCGTAAGTTTCGCAGCTTATTAA</t>
   </si>
   <si>
-    <t>micM</t>
-  </si>
-  <si>
     <t>chiP</t>
   </si>
   <si>
     <t>GTCAAAGAGGA</t>
   </si>
   <si>
-    <t>sokC</t>
-  </si>
-  <si>
     <t>mokC</t>
   </si>
   <si>
@@ -285,21 +243,12 @@
     <t>[HIFS|W|Human inference of function from sequence]</t>
   </si>
   <si>
-    <t>rdlA</t>
-  </si>
-  <si>
     <t>ldrA</t>
   </si>
   <si>
-    <t>rdlB</t>
-  </si>
-  <si>
     <t>ldrB</t>
   </si>
   <si>
-    <t>spf</t>
-  </si>
-  <si>
     <t>galK</t>
   </si>
   <si>
@@ -309,18 +258,12 @@
     <t>[GEA|W|Gene expression analysis],[IMP|W|Inferred from mutant phenotype],[IPI|W|Inferred from physical interaction]</t>
   </si>
   <si>
-    <t>dicF</t>
-  </si>
-  <si>
     <t>ftsZ</t>
   </si>
   <si>
     <t>GCGACAGGCACAAATCGGAGAGAAACTAT</t>
   </si>
   <si>
-    <t>oxyS</t>
-  </si>
-  <si>
     <t>ybaY</t>
   </si>
   <si>
@@ -366,9 +309,6 @@
     <t>AAGGGTTG</t>
   </si>
   <si>
-    <t>istR-1</t>
-  </si>
-  <si>
     <t>tisB</t>
   </si>
   <si>
@@ -381,9 +321,6 @@
     <t>AACCCCGCGTGAGCACACTGTGTTATGTCAACAAGCACAACGT</t>
   </si>
   <si>
-    <t>rseX</t>
-  </si>
-  <si>
     <t>AAATAAAGGCATATAACAGAGGGTTAATAA</t>
   </si>
   <si>
@@ -396,9 +333,6 @@
     <t>[IE|W|Inferred from experiment],[IMP|W|Inferred from mutant phenotype],[IPI|W|Inferred from physical interaction],[HIFS|W|Human inference of function from sequence]</t>
   </si>
   <si>
-    <t>rydC</t>
-  </si>
-  <si>
     <t>yejF</t>
   </si>
   <si>
@@ -411,51 +345,33 @@
     <t>yejA</t>
   </si>
   <si>
-    <t>ohsC</t>
-  </si>
-  <si>
     <t>shoB</t>
   </si>
   <si>
     <t>GTGCAGCATGCACCCTCA</t>
   </si>
   <si>
-    <t>ryfD</t>
-  </si>
-  <si>
     <t>clpB</t>
   </si>
   <si>
     <t>GAGTTATGCGTCTGGATCGTCT</t>
   </si>
   <si>
-    <t>sibE</t>
-  </si>
-  <si>
     <t>ibsE</t>
   </si>
   <si>
     <t>TGATGAAGCTCGTCATCATACTGGTTGTGTTGTTACTGTTAAGTTTCCCGACTTACTAA</t>
   </si>
   <si>
-    <t>symR</t>
-  </si>
-  <si>
     <t>symE</t>
   </si>
   <si>
-    <t>ffs</t>
-  </si>
-  <si>
     <t>ffh</t>
   </si>
   <si>
     <t>translocation</t>
   </si>
   <si>
-    <t>micF</t>
-  </si>
-  <si>
     <t>ATGAGGGTAATAAATAATGATGAAG</t>
   </si>
   <si>
@@ -474,9 +390,6 @@
     <t>TGTTTGCATGAGAT</t>
   </si>
   <si>
-    <t>fnrS</t>
-  </si>
-  <si>
     <t>yobA</t>
   </si>
   <si>
@@ -498,9 +411,6 @@
     <t>cydD</t>
   </si>
   <si>
-    <t>rnpB</t>
-  </si>
-  <si>
     <t>rnpA</t>
   </si>
   <si>
@@ -510,9 +420,6 @@
     <t>[IE|W|Inferred from experiment],[IPI|W|Inferred from physical interaction]</t>
   </si>
   <si>
-    <t>csrB</t>
-  </si>
-  <si>
     <t>csrA</t>
   </si>
   <si>
@@ -522,24 +429,15 @@
     <t>post-translational regulation</t>
   </si>
   <si>
-    <t>rprA</t>
-  </si>
-  <si>
     <t>AATTCGTTACAAGGGGAAATCCG</t>
   </si>
   <si>
-    <t>micA</t>
-  </si>
-  <si>
     <t>TGAAAAAAATTGCATGTCTTTC</t>
   </si>
   <si>
     <t>GGATGATAACGAGGC</t>
   </si>
   <si>
-    <t>gcvB</t>
-  </si>
-  <si>
     <t>yrhA</t>
   </si>
   <si>
@@ -741,9 +639,6 @@
     <t>cysD</t>
   </si>
   <si>
-    <t>omrA</t>
-  </si>
-  <si>
     <t>ybeT</t>
   </si>
   <si>
@@ -759,15 +654,9 @@
     <t>fepA</t>
   </si>
   <si>
-    <t>arcZ</t>
-  </si>
-  <si>
     <t>TTTGAAATTCGTTACAAGGGGAAATCCGTAA</t>
   </si>
   <si>
-    <t>ryhB</t>
-  </si>
-  <si>
     <t>hybO</t>
   </si>
   <si>
@@ -861,15 +750,9 @@
     <t>ACAGGTTGACCGACAACG</t>
   </si>
   <si>
-    <t>csrC</t>
-  </si>
-  <si>
     <t>[GEA|W|Gene expression analysis],[IPI|W|Inferred from physical interaction]</t>
   </si>
   <si>
-    <t>cyaR</t>
-  </si>
-  <si>
     <t>yqaE</t>
   </si>
   <si>
@@ -891,9 +774,6 @@
     <t>GAGGGGTTCAATG</t>
   </si>
   <si>
-    <t>rybB</t>
-  </si>
-  <si>
     <t>GCAAATAAAGGCATATAACAGAGGGTTAATAA</t>
   </si>
   <si>
@@ -903,9 +783,6 @@
     <t>GACGGAGCGGATATGAAAAAGTTAACAGTGGC</t>
   </si>
   <si>
-    <t>dsrA</t>
-  </si>
-  <si>
     <t>hns</t>
   </si>
   <si>
@@ -927,22 +804,13 @@
     <t>argR</t>
   </si>
   <si>
-    <t>sokB</t>
-  </si>
-  <si>
     <t>mokB</t>
   </si>
   <si>
-    <t>sgrS</t>
-  </si>
-  <si>
     <t>ptsG</t>
   </si>
   <si>
     <t>GCACCCATACTCAGGAGCACTCTCAATTATGT</t>
-  </si>
-  <si>
-    <t>rdlC</t>
   </si>
   <si>
     <t>ldrC</t>
@@ -983,14 +851,201 @@
   </si>
   <si>
     <t>Gene</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IpeX</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SibA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SibB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SibC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>OmrB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RyeB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsrA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MicC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlmY</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GadY</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RdlD</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SibD</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MicM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SokC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RdlA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RdlB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spot42</t>
+  </si>
+  <si>
+    <t>DicF</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>OxyS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IstR-1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RseX</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RydC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>OhsC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RyfD</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SibE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SymR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ffs</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MicF</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MgrR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FnrS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RnpB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CsrB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RprA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MicA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GcvB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>OmrA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArcZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RyhB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlmZ</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CsrC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CyaR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RyfA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RybB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DsrA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SokB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SgrS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RdlC</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1607,23 +1662,23 @@
     <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="说明文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="无色" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1922,151 +1977,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J228"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A228" sqref="A228"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" customWidth="1"/>
+    <col min="1" max="1" width="36.625" customWidth="1"/>
     <col min="2" max="2" width="35.5" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
-    <col min="4" max="4" width="47.1640625" customWidth="1"/>
+    <col min="4" max="4" width="47.125" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
     <col min="6" max="6" width="58.5" customWidth="1"/>
-    <col min="7" max="7" width="67.83203125" customWidth="1"/>
+    <col min="7" max="7" width="67.875" customWidth="1"/>
     <col min="8" max="8" width="20.5" customWidth="1"/>
     <col min="9" max="9" width="35.5" customWidth="1"/>
-    <col min="10" max="10" width="106.33203125" customWidth="1"/>
+    <col min="10" max="10" width="106.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>318</v>
+        <v>274</v>
       </c>
       <c r="B1" t="s">
-        <v>319</v>
+        <v>275</v>
       </c>
       <c r="C1" t="s">
-        <v>310</v>
+        <v>266</v>
       </c>
       <c r="D1" t="s">
-        <v>311</v>
+        <v>267</v>
       </c>
       <c r="E1" t="s">
-        <v>312</v>
+        <v>268</v>
       </c>
       <c r="F1" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="G1" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="H1" t="s">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="I1" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="J1" t="s">
-        <v>317</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
         <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
         <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
       <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
       <c r="H4" t="s">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="I4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>277</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>2151373</v>
@@ -2075,30 +2130,30 @@
         <v>2151432</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>278</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>2151705</v>
@@ -2107,30 +2162,30 @@
         <v>2151761</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>279</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>3054912</v>
@@ -2139,432 +2194,432 @@
         <v>3054971</v>
       </c>
       <c r="E8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>280</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>280</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
+        <v>280</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
+        <v>280</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>29</v>
-      </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>280</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>280</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>280</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>280</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>280</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>280</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
+        <v>280</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" t="s">
-        <v>29</v>
-      </c>
       <c r="H20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J20" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>280</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>280</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
+        <v>280</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
         <v>24</v>
       </c>
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" t="s">
-        <v>29</v>
-      </c>
       <c r="H23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J23" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
+        <v>280</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" t="s">
-        <v>29</v>
-      </c>
       <c r="H24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J24" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>280</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>280</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J26" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>280</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C27">
         <v>584837</v>
@@ -2573,30 +2628,30 @@
         <v>584868</v>
       </c>
       <c r="E27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" t="s">
         <v>5</v>
-      </c>
-      <c r="J27" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>280</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C28">
         <v>3534617</v>
@@ -2605,50 +2660,50 @@
         <v>3534635</v>
       </c>
       <c r="E28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>280</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J29" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>280</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C30">
         <v>2244801</v>
@@ -2657,122 +2712,122 @@
         <v>2244826</v>
       </c>
       <c r="E30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G30" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I30" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" t="s">
         <v>5</v>
-      </c>
-      <c r="J30" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>280</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J31" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J32" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>280</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J33" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>280</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J34" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>281</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C35">
         <v>1921128</v>
@@ -2781,66 +2836,66 @@
         <v>1921231</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G35" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I35" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" t="s">
         <v>5</v>
-      </c>
-      <c r="J35" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>282</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>282</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E37" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>282</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E38" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>283</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39">
         <v>2310786</v>
@@ -2849,133 +2904,133 @@
         <v>2310812</v>
       </c>
       <c r="E39" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G39" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I39" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="J39" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
         <v>10</v>
       </c>
-      <c r="F40" t="s">
-        <v>11</v>
-      </c>
       <c r="H40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>284</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E43" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I43" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" t="s">
         <v>5</v>
-      </c>
-      <c r="J43" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>284</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H44" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>285</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C45">
         <v>3663750</v>
@@ -2984,50 +3039,50 @@
         <v>3663815</v>
       </c>
       <c r="E45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G45" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="H45" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J45" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>286</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E46" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I46" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C47">
         <v>3192788</v>
@@ -3036,30 +3091,30 @@
         <v>3192847</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G47" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="H47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J47" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>288</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C48">
         <v>707538</v>
@@ -3068,96 +3123,96 @@
         <v>707549</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G48" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>289</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H49" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="I49" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="J49" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>88</v>
+        <v>290</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E50" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I50" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="J50" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>291</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I51" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="J51" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>292</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C52">
         <v>789147</v>
@@ -3166,30 +3221,30 @@
         <v>789221</v>
       </c>
       <c r="E52" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G52" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="H52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I52" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="J52" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>96</v>
+        <v>293</v>
       </c>
       <c r="B53" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C53">
         <v>105277</v>
@@ -3198,303 +3253,303 @@
         <v>105306</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G53" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I53" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="J53" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>294</v>
       </c>
       <c r="B54" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I54" t="s">
+        <v>4</v>
+      </c>
+      <c r="J54" t="s">
         <v>5</v>
-      </c>
-      <c r="J54" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>99</v>
+        <v>294</v>
       </c>
       <c r="B55" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I55" t="s">
+        <v>4</v>
+      </c>
+      <c r="J55" t="s">
         <v>5</v>
-      </c>
-      <c r="J55" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>99</v>
+        <v>294</v>
       </c>
       <c r="B56" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I56" t="s">
+        <v>4</v>
+      </c>
+      <c r="J56" t="s">
         <v>5</v>
-      </c>
-      <c r="J56" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>99</v>
+        <v>294</v>
       </c>
       <c r="B57" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="E57" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>294</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J58" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>294</v>
       </c>
       <c r="B59" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="E59" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I59" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J59" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>99</v>
+        <v>294</v>
       </c>
       <c r="B60" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="E60" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I60" t="s">
+        <v>4</v>
+      </c>
+      <c r="J60" t="s">
         <v>5</v>
-      </c>
-      <c r="J60" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>99</v>
+        <v>294</v>
       </c>
       <c r="B61" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E61" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J61" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>294</v>
       </c>
       <c r="B62" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="E62" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J62" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>99</v>
+        <v>294</v>
       </c>
       <c r="B63" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="E63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I63" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J63" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>294</v>
       </c>
       <c r="B64" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I64" t="s">
+        <v>4</v>
+      </c>
+      <c r="J64" t="s">
         <v>5</v>
-      </c>
-      <c r="J64" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>294</v>
       </c>
       <c r="B65" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="E65" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I65" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J65" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>99</v>
+        <v>294</v>
       </c>
       <c r="B66" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C66">
         <v>2852345</v>
@@ -3503,27 +3558,27 @@
         <v>2852351</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G66" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="H66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I66" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>99</v>
+        <v>294</v>
       </c>
       <c r="B67" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C67">
         <v>2852393</v>
@@ -3532,27 +3587,27 @@
         <v>2852401</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G67" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="H67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I67" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>115</v>
+        <v>295</v>
       </c>
       <c r="B68" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="C68">
         <v>3851551</v>
@@ -3561,27 +3616,27 @@
         <v>3851594</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F68" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G68" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="H68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>115</v>
+        <v>295</v>
       </c>
       <c r="B69" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C69">
         <v>3851441</v>
@@ -3590,27 +3645,27 @@
         <v>3851484</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F69" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G69" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="H69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>120</v>
+        <v>296</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C70">
         <v>2310772</v>
@@ -3619,30 +3674,30 @@
         <v>2310802</v>
       </c>
       <c r="E70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G70" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="H70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I70" t="s">
+        <v>4</v>
+      </c>
+      <c r="J70" t="s">
         <v>5</v>
-      </c>
-      <c r="J70" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>120</v>
+        <v>296</v>
       </c>
       <c r="B71" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C71">
         <v>1019284</v>
@@ -3651,110 +3706,110 @@
         <v>1019298</v>
       </c>
       <c r="E71" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G71" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="H71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I71" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J71" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>125</v>
+        <v>297</v>
       </c>
       <c r="B72" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F72" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I72" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>125</v>
+        <v>297</v>
       </c>
       <c r="B73" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F73" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I73" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>125</v>
+        <v>297</v>
       </c>
       <c r="B74" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I74" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>125</v>
+        <v>297</v>
       </c>
       <c r="B75" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F75" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I75" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>130</v>
+        <v>298</v>
       </c>
       <c r="B76" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="C76">
         <v>2698295</v>
@@ -3763,30 +3818,30 @@
         <v>2698313</v>
       </c>
       <c r="E76" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G76" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="H76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I76" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J76" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>133</v>
+        <v>299</v>
       </c>
       <c r="B77" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="C77">
         <v>2732178</v>
@@ -3795,30 +3850,30 @@
         <v>2732200</v>
       </c>
       <c r="E77" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G77" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="H77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I77" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J77" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>136</v>
+        <v>300</v>
       </c>
       <c r="B78" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="C78">
         <v>3193163</v>
@@ -3827,70 +3882,70 @@
         <v>3193222</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F78" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G78" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="H78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I78" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J78" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>139</v>
+        <v>301</v>
       </c>
       <c r="B79" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="E79" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I79" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>141</v>
+        <v>302</v>
       </c>
       <c r="B80" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="E80" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H80" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="I80" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>144</v>
+        <v>303</v>
       </c>
       <c r="B81" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81">
         <v>986196</v>
@@ -3899,27 +3954,27 @@
         <v>986221</v>
       </c>
       <c r="E81" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G81" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="H81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I81" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="B82" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="C82">
         <v>2968448</v>
@@ -3928,30 +3983,30 @@
         <v>2968459</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F82" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G82" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="H82" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I82" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J82" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>146</v>
+        <v>304</v>
       </c>
       <c r="B83" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="C83">
         <v>3708491</v>
@@ -3960,30 +4015,30 @@
         <v>3708505</v>
       </c>
       <c r="E83" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G83" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="H83" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I83" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J83" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>151</v>
+        <v>305</v>
       </c>
       <c r="B84" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="C84">
         <v>1922976</v>
@@ -3992,44 +4047,44 @@
         <v>1923010</v>
       </c>
       <c r="E84" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G84" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="H84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I84" t="s">
+        <v>4</v>
+      </c>
+      <c r="J84" t="s">
         <v>5</v>
-      </c>
-      <c r="J84" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>151</v>
+        <v>305</v>
       </c>
       <c r="B85" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F85" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>151</v>
+        <v>305</v>
       </c>
       <c r="B86" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="C86">
         <v>1733372</v>
@@ -4038,116 +4093,116 @@
         <v>1733405</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F86" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G86" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="H86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I86" t="s">
+        <v>4</v>
+      </c>
+      <c r="J86" t="s">
         <v>5</v>
-      </c>
-      <c r="J86" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" t="s">
-        <v>151</v>
+        <v>305</v>
       </c>
       <c r="B87" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F87" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I87" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>151</v>
+        <v>305</v>
       </c>
       <c r="B88" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="E88" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I88" t="s">
+        <v>4</v>
+      </c>
+      <c r="J88" t="s">
         <v>5</v>
-      </c>
-      <c r="J88" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>159</v>
+        <v>306</v>
       </c>
       <c r="B89" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H89" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="I89" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J89" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>163</v>
+        <v>307</v>
       </c>
       <c r="B90" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="E90" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H90" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="I90" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" t="s">
-        <v>167</v>
+        <v>308</v>
       </c>
       <c r="B91" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C91">
         <v>2865667</v>
@@ -4156,27 +4211,27 @@
         <v>2865690</v>
       </c>
       <c r="E91" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G91" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="H91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I91" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" t="s">
-        <v>169</v>
+        <v>309</v>
       </c>
       <c r="B92" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C92">
         <v>849673</v>
@@ -4185,30 +4240,30 @@
         <v>849695</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F92" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G92" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="H92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I92" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J92" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" t="s">
-        <v>169</v>
+        <v>309</v>
       </c>
       <c r="B93" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C93">
         <v>1019283</v>
@@ -4217,191 +4272,191 @@
         <v>1019298</v>
       </c>
       <c r="E93" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G93" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="H93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I93" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="J93" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B94" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F94" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H94" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I94" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J94" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B95" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F95" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H95" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I95" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J95" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B96" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="E96" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H96" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B97" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="E97" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H97" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I97" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B98" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="E98" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H98" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I98" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J98" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B99" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F99" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H99" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B100" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F100" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H100" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I100" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J100" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B101" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="C101">
         <v>687014</v>
@@ -4410,237 +4465,237 @@
         <v>687047</v>
       </c>
       <c r="E101" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G101" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="H101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I101" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="J101" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B102" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="E102" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H102" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I102" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J102" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B103" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F103" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H103" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I103" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J103" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B104" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="E104" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H104" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I104" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J104" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B105" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="E105" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H105" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I105" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J105" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B106" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="E106" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H106" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B107" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="E107" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H107" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I107" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B108" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="E108" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H108" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I108" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B109" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="E109" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F109" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H109" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I109" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B110" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F110" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H110" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I110" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B111" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="C111">
         <v>3595600</v>
@@ -4649,30 +4704,30 @@
         <v>3595623</v>
       </c>
       <c r="E111" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G111" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="H111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I111" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="J111" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B112" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="C112">
         <v>3597703</v>
@@ -4681,467 +4736,467 @@
         <v>3597726</v>
       </c>
       <c r="E112" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G112" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="H112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I112" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="J112" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B113" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F113" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H113" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I113" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J113" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B114" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H114" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J114" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B115" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H115" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I115" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J115" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B116" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H116" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I116" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J116" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B117" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="E117" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H117" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I117" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J117" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B118" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F118" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H118" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I118" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B119" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F119" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H119" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I119" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J119" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B120" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="E120" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H120" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I120" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J120" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B121" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="E121" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H121" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I121" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J121" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B122" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="E122" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H122" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I122" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B123" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="E123" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H123" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I123" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J123" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" t="s">
+        <v>310</v>
+      </c>
+      <c r="B124" t="s">
         <v>172</v>
       </c>
-      <c r="B124" t="s">
-        <v>206</v>
-      </c>
       <c r="E124" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H124" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J124" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B125" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="E125" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F125" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H125" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I125" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J125" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B126" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="E126" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H126" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I126" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J126" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B127" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="E127" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H127" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J127" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="A128" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B128" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F128" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H128" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I128" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J128" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B129" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="E129" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F129" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H129" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I129" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J129" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B130" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="E130" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F130" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H130" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I130" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J130" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B131" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="E131" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H131" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I131" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J131" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B132" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="C132">
         <v>4427861</v>
@@ -5150,30 +5205,30 @@
         <v>4427893</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F132" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G132" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="H132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I132" t="s">
+        <v>4</v>
+      </c>
+      <c r="J132" t="s">
         <v>5</v>
-      </c>
-      <c r="J132" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:10">
       <c r="A133" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B133" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="C133">
         <v>3237940</v>
@@ -5182,99 +5237,99 @@
         <v>3237966</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F133" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G133" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="H133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I133" t="s">
+        <v>4</v>
+      </c>
+      <c r="J133" t="s">
         <v>5</v>
-      </c>
-      <c r="J133" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B134" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F134" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H134" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I134" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J134" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="135" spans="1:10">
       <c r="A135" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B135" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F135" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H135" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I135" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J135" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="136" spans="1:10">
       <c r="A136" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B136" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="E136" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F136" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H136" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I136" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137" spans="1:10">
       <c r="A137" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B137" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="C137">
         <v>1299199</v>
@@ -5283,234 +5338,234 @@
         <v>1299219</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F137" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G137" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="H137" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I137" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="138" spans="1:10">
       <c r="A138" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B138" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="E138" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H138" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I138" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J138" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B139" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F139" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H139" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I139" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J139" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B140" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="E140" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F140" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J140" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B141" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F141" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H141" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I141" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J141" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="142" spans="1:10">
       <c r="A142" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B142" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F142" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H142" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I142" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="143" spans="1:10">
       <c r="A143" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B143" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="E143" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F143" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H143" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I143" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J143" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="144" spans="1:10">
       <c r="A144" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B144" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F144" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H144" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I144" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J144" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="145" spans="1:10">
       <c r="A145" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B145" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F145" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H145" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I145" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J145" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="146" spans="1:10">
       <c r="A146" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B146" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="E146" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F146" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H146" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I146" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J146" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="147" spans="1:10">
       <c r="A147" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B147" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="C147">
         <v>3705731</v>
@@ -5519,50 +5574,50 @@
         <v>3705759</v>
       </c>
       <c r="E147" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F147" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G147" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="H147" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I147" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
     </row>
     <row r="148" spans="1:10">
       <c r="A148" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B148" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="E148" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F148" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H148" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I148" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J148" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B149" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="C149">
         <v>2425846</v>
@@ -5571,501 +5626,501 @@
         <v>2425871</v>
       </c>
       <c r="E149" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F149" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G149" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="H149" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I149" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="J149" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:10">
       <c r="A150" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B150" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H150" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I150" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J150" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="151" spans="1:10">
       <c r="A151" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B151" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="E151" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F151" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H151" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I151" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J151" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="152" spans="1:10">
       <c r="A152" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B152" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="E152" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F152" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H152" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I152" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J152" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="153" spans="1:10">
       <c r="A153" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="B153" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="E153" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F153" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H153" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I153" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J153" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="154" spans="1:10">
       <c r="A154" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="B154" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="E154" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F154" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I154" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J154" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="155" spans="1:10">
       <c r="A155" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="B155" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F155" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I155" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J155" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="B156" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E156" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F156" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I156" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J156" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="157" spans="1:10">
       <c r="A157" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="B157" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E157" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F157" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H157" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I157" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J157" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="158" spans="1:10">
       <c r="A158" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="B158" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F158" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H158" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I158" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J158" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="159" spans="1:10">
       <c r="A159" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="B159" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E159" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F159" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H159" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I159" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J159" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="160" spans="1:10">
       <c r="A160" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="B160" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E160" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F160" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H160" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I160" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J160" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="161" spans="1:10">
       <c r="A161" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="B161" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F161" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H161" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I161" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J161" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="162" spans="1:10">
       <c r="A162" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="B162" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F162" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H162" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I162" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J162" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="163" spans="1:10">
       <c r="A163" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="B163" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F163" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H163" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I163" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J163" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="164" spans="1:10">
       <c r="A164" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="B164" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E164" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F164" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:10">
       <c r="A165" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="B165" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E165" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F165" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H165" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I165" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J165" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="166" spans="1:10">
       <c r="A166" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="B166" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E166" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H166" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I166" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J166" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="167" spans="1:10">
       <c r="A167" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="B167" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E167" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H167" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I167" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J167" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="168" spans="1:10">
       <c r="A168" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="B168" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E168" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F168" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H168" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I168" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:10">
       <c r="A169" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="B169" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E169" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F169" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H169" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I169" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J169" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="170" spans="1:10">
       <c r="A170" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="B170" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="E170" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F170" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H170" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I170" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J170" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="171" spans="1:10">
       <c r="A171" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="B171" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C171">
         <v>584837</v>
@@ -6074,27 +6129,27 @@
         <v>584868</v>
       </c>
       <c r="E171" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F171" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G171" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H171" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I171" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:10">
       <c r="A172" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="B172" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C172">
         <v>3534617</v>
@@ -6103,73 +6158,73 @@
         <v>3534635</v>
       </c>
       <c r="E172" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F172" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G172" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H172" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I172" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173" spans="1:10">
       <c r="A173" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="B173" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F173" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H173" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I173" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J173" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="174" spans="1:10">
       <c r="A174" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="B174" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="E174" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F174" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H174" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I174" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J174" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="175" spans="1:10">
       <c r="A175" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="B175" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C175">
         <v>2244801</v>
@@ -6178,145 +6233,145 @@
         <v>2244826</v>
       </c>
       <c r="E175" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F175" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G175" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H175" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I175" t="s">
+        <v>4</v>
+      </c>
+      <c r="J175" t="s">
         <v>5</v>
-      </c>
-      <c r="J175" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="176" spans="1:10">
       <c r="A176" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="B176" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F176" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H176" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I176" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J176" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="177" spans="1:10">
       <c r="A177" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="B177" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F177" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H177" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I177" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J177" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="178" spans="1:10">
       <c r="A178" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="B178" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F178" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H178" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I178" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J178" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="179" spans="1:10">
       <c r="A179" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="B179" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="E179" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F179" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H179" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I179" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J179" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="180" spans="1:10">
       <c r="A180" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="B180" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E180" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F180" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H180" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I180" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J180" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="181" spans="1:10">
       <c r="A181" t="s">
-        <v>246</v>
+        <v>312</v>
       </c>
       <c r="B181" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C181">
         <v>2865664</v>
@@ -6325,622 +6380,622 @@
         <v>2865695</v>
       </c>
       <c r="E181" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F181" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G181" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="H181" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I181" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J181" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="182" spans="1:10">
       <c r="A182" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="B182" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="E182" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F182" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H182" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I182" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J182" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="183" spans="1:10">
       <c r="A183" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="B183" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="E183" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F183" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H183" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I183" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J183" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="184" spans="1:10">
       <c r="A184" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="B184" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="E184" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F184" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H184" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I184" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J184" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="185" spans="1:10">
       <c r="A185" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="B185" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="E185" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F185" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H185" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="I185" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J185" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="186" spans="1:10">
       <c r="A186" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="B186" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="E186" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F186" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H186" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="I186" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J186" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="187" spans="1:10">
       <c r="A187" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="B187" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F187" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H187" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I187" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="J187" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="188" spans="1:10">
       <c r="A188" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="B188" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="E188" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F188" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H188" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I188" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J188" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="189" spans="1:10">
       <c r="A189" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="B189" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="E189" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F189" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H189" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I189" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J189" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="190" spans="1:10">
       <c r="A190" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="B190" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="E190" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F190" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H190" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I190" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J190" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="191" spans="1:10">
       <c r="A191" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="B191" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="E191" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F191" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H191" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I191" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J191" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="192" spans="1:10">
       <c r="A192" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="B192" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="E192" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F192" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H192" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I192" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J192" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="193" spans="1:10">
       <c r="A193" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="B193" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="E193" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F193" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H193" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I193" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J193" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="194" spans="1:10">
       <c r="A194" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="B194" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="E194" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F194" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H194" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I194" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J194" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="195" spans="1:10">
       <c r="A195" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="B195" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="E195" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F195" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H195" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I195" t="s">
+        <v>4</v>
+      </c>
+      <c r="J195" t="s">
         <v>5</v>
-      </c>
-      <c r="J195" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="196" spans="1:10">
       <c r="A196" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="B196" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F196" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H196" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I196" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J196" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="197" spans="1:10">
       <c r="A197" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="B197" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F197" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H197" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I197" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J197" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="198" spans="1:10">
       <c r="A198" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="B198" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F198" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H198" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I198" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="199" spans="1:10">
       <c r="A199" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="B199" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F199" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H199" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I199" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J199" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="200" spans="1:10">
       <c r="A200" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="B200" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="E200" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F200" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H200" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I200" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J200" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="201" spans="1:10">
       <c r="A201" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="B201" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="E201" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F201" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H201" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I201" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J201" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="202" spans="1:10">
       <c r="A202" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="B202" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="E202" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F202" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H202" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I202" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J202" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="203" spans="1:10">
       <c r="A203" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="B203" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F203" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H203" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I203" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J203" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="204" spans="1:10">
       <c r="A204" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="B204" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F204" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H204" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I204" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J204" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="205" spans="1:10">
       <c r="A205" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="B205" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="E205" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F205" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H205" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I205" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J205" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="206" spans="1:10">
       <c r="A206" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="B206" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="E206" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F206" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H206" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I206" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="207" spans="1:10">
       <c r="A207" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="B207" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="E207" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F207" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H207" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I207" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J207" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="208" spans="1:10">
       <c r="A208" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="B208" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="C208">
         <v>3780578</v>
@@ -6949,76 +7004,76 @@
         <v>3780589</v>
       </c>
       <c r="E208" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F208" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G208" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="H208" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I208" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J208" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="209" spans="1:10">
       <c r="A209" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="B209" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="E209" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F209" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H209" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I209" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J209" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="210" spans="1:10">
       <c r="A210" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="B210" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="E210" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F210" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H210" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="I210" t="s">
+        <v>4</v>
+      </c>
+      <c r="J210" t="s">
         <v>5</v>
-      </c>
-      <c r="J210" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="211" spans="1:10">
       <c r="A211" t="s">
-        <v>69</v>
+        <v>314</v>
       </c>
       <c r="B211" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C211">
         <v>3911713</v>
@@ -7027,50 +7082,50 @@
         <v>3911731</v>
       </c>
       <c r="E211" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F211" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G211" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="H211" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I211" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:10">
       <c r="A212" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="B212" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="E212" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F212" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H212" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="I212" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="J212" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
     </row>
     <row r="213" spans="1:10">
       <c r="A213" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="B213" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="C213">
         <v>2795035</v>
@@ -7079,30 +7134,30 @@
         <v>2795054</v>
       </c>
       <c r="E213" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F213" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G213" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="H213" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I213" t="s">
+        <v>4</v>
+      </c>
+      <c r="J213" t="s">
         <v>5</v>
-      </c>
-      <c r="J213" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="214" spans="1:10">
       <c r="A214" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="B214" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C214">
         <v>849664</v>
@@ -7111,27 +7166,27 @@
         <v>849672</v>
       </c>
       <c r="E214" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F214" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G214" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="H214" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I214" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215" spans="1:10">
       <c r="A215" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="B215" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="C215">
         <v>2812753</v>
@@ -7140,30 +7195,30 @@
         <v>2812767</v>
       </c>
       <c r="E215" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F215" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G215" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="H215" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I215" t="s">
+        <v>4</v>
+      </c>
+      <c r="J215" t="s">
         <v>5</v>
-      </c>
-      <c r="J215" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="216" spans="1:10">
       <c r="A216" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="B216" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C216">
         <v>1820471</v>
@@ -7172,70 +7227,70 @@
         <v>1820484</v>
       </c>
       <c r="E216" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F216" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G216" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="H216" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I216" t="s">
+        <v>4</v>
+      </c>
+      <c r="J216" t="s">
         <v>5</v>
-      </c>
-      <c r="J216" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="217" spans="1:10">
       <c r="A217" t="s">
-        <v>9</v>
+        <v>317</v>
       </c>
       <c r="B217" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="E217" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F217" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H217" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I217" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="218" spans="1:10">
       <c r="A218" t="s">
-        <v>9</v>
+        <v>317</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E218" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F218" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H218" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I218" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219" spans="1:10">
       <c r="A219" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C219">
         <v>2310772</v>
@@ -7244,30 +7299,30 @@
         <v>2310804</v>
       </c>
       <c r="E219" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F219" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G219" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="H219" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I219" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="J219" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220" spans="1:10">
       <c r="A220" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="B220" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="C220">
         <v>1312031</v>
@@ -7276,30 +7331,30 @@
         <v>1312063</v>
       </c>
       <c r="E220" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F220" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G220" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="H220" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I220" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="J220" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="221" spans="1:10">
       <c r="A221" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="B221" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="C221">
         <v>1292127</v>
@@ -7308,30 +7363,30 @@
         <v>1292139</v>
       </c>
       <c r="E221" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F221" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G221" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="H221" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I221" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="J221" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
     </row>
     <row r="222" spans="1:10">
       <c r="A222" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="B222" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C222">
         <v>2865670</v>
@@ -7340,122 +7395,122 @@
         <v>2865692</v>
       </c>
       <c r="E222" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F222" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G222" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="H222" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I222" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="J222" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
     </row>
     <row r="223" spans="1:10">
       <c r="A223" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="B223" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="E223" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F223" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H223" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I223" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J223" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="224" spans="1:10">
       <c r="A224" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="B224" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="E224" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F224" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H224" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I224" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J224" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="225" spans="1:10">
       <c r="A225" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="B225" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="E225" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F225" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H225" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I225" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J225" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="226" spans="1:10">
       <c r="A226" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="B226" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="E226" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F226" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H226" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I226" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="J226" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="227" spans="1:10">
       <c r="A227" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="B227" t="s">
-        <v>305</v>
+        <v>262</v>
       </c>
       <c r="C227">
         <v>1157063</v>
@@ -7464,42 +7519,42 @@
         <v>1157095</v>
       </c>
       <c r="E227" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F227" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G227" t="s">
-        <v>306</v>
+        <v>263</v>
       </c>
       <c r="H227" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I227" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="228" spans="1:10">
       <c r="A228" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="B228" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
       <c r="E228" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F228" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H228" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I228" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="J228" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/regulondb/collection/link/sRNA_Gene.xlsx
+++ b/regulondb/collection/link/sRNA_Gene.xlsx
@@ -830,9 +830,6 @@
     <t>DNA strand of the regulated gene</t>
   </si>
   <si>
-    <t>Function (+ activation, - repression, +- dual, ? unknown)</t>
-  </si>
-  <si>
     <t>Regulation type</t>
   </si>
   <si>
@@ -1038,6 +1035,10 @@
   </si>
   <si>
     <t>RdlC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1980,8 +1981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A228" sqref="A228"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1991,7 +1992,7 @@
     <col min="3" max="3" width="45" customWidth="1"/>
     <col min="4" max="4" width="47.125" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
-    <col min="6" max="6" width="58.5" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
     <col min="7" max="7" width="67.875" customWidth="1"/>
     <col min="8" max="8" width="20.5" customWidth="1"/>
     <col min="9" max="9" width="35.5" customWidth="1"/>
@@ -2000,10 +2001,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" t="s">
         <v>274</v>
-      </c>
-      <c r="B1" t="s">
-        <v>275</v>
       </c>
       <c r="C1" t="s">
         <v>266</v>
@@ -2015,24 +2016,24 @@
         <v>268</v>
       </c>
       <c r="F1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H1" t="s">
         <v>269</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>271</v>
       </c>
-      <c r="H1" t="s">
-        <v>270</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>272</v>
-      </c>
-      <c r="J1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -2055,7 +2056,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -2118,7 +2119,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -2150,7 +2151,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -2182,7 +2183,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -2214,7 +2215,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -2237,7 +2238,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -2260,7 +2261,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -2283,7 +2284,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -2306,7 +2307,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -2329,7 +2330,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
@@ -2352,7 +2353,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
@@ -2375,7 +2376,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -2398,7 +2399,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -2421,7 +2422,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
@@ -2444,7 +2445,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
@@ -2467,7 +2468,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
@@ -2490,7 +2491,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
@@ -2504,7 +2505,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
@@ -2527,7 +2528,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
@@ -2550,7 +2551,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
@@ -2573,7 +2574,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B25" t="s">
         <v>38</v>
@@ -2593,7 +2594,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B26" t="s">
         <v>39</v>
@@ -2616,7 +2617,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B27" t="s">
         <v>40</v>
@@ -2648,7 +2649,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B28" t="s">
         <v>42</v>
@@ -2677,7 +2678,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B29" t="s">
         <v>44</v>
@@ -2700,7 +2701,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B30" t="s">
         <v>45</v>
@@ -2732,7 +2733,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B31" t="s">
         <v>47</v>
@@ -2755,7 +2756,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B32" t="s">
         <v>48</v>
@@ -2778,7 +2779,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B33" t="s">
         <v>49</v>
@@ -2801,7 +2802,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B34" t="s">
         <v>50</v>
@@ -2824,7 +2825,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B35" t="s">
         <v>51</v>
@@ -2853,7 +2854,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
@@ -2867,7 +2868,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B37" t="s">
         <v>53</v>
@@ -2878,7 +2879,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B38" t="s">
         <v>54</v>
@@ -2892,7 +2893,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -2984,7 +2985,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B43" t="s">
         <v>59</v>
@@ -3007,7 +3008,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B44" t="s">
         <v>60</v>
@@ -3027,7 +3028,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B45" t="s">
         <v>62</v>
@@ -3059,7 +3060,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B46" t="s">
         <v>66</v>
@@ -3079,7 +3080,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B47" t="s">
         <v>67</v>
@@ -3111,7 +3112,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B48" t="s">
         <v>69</v>
@@ -3140,7 +3141,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B49" t="s">
         <v>71</v>
@@ -3163,7 +3164,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B50" t="s">
         <v>74</v>
@@ -3186,7 +3187,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B51" t="s">
         <v>75</v>
@@ -3209,7 +3210,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B52" t="s">
         <v>76</v>
@@ -3241,7 +3242,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B53" t="s">
         <v>79</v>
@@ -3273,7 +3274,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B54" t="s">
         <v>81</v>
@@ -3296,7 +3297,7 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B55" t="s">
         <v>82</v>
@@ -3319,7 +3320,7 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B56" t="s">
         <v>83</v>
@@ -3342,7 +3343,7 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B57" t="s">
         <v>84</v>
@@ -3362,7 +3363,7 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B58" t="s">
         <v>85</v>
@@ -3385,7 +3386,7 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B59" t="s">
         <v>86</v>
@@ -3408,7 +3409,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B60" t="s">
         <v>87</v>
@@ -3431,7 +3432,7 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B61" t="s">
         <v>88</v>
@@ -3454,7 +3455,7 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B62" t="s">
         <v>89</v>
@@ -3477,7 +3478,7 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B63" t="s">
         <v>90</v>
@@ -3500,7 +3501,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B64" t="s">
         <v>91</v>
@@ -3523,7 +3524,7 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B65" t="s">
         <v>92</v>
@@ -3546,7 +3547,7 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B66" t="s">
         <v>93</v>
@@ -3575,7 +3576,7 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B67" t="s">
         <v>93</v>
@@ -3604,7 +3605,7 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B68" t="s">
         <v>96</v>
@@ -3633,7 +3634,7 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B69" t="s">
         <v>98</v>
@@ -3662,7 +3663,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
@@ -3694,7 +3695,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B71" t="s">
         <v>101</v>
@@ -3726,7 +3727,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B72" t="s">
         <v>104</v>
@@ -3746,7 +3747,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B73" t="s">
         <v>105</v>
@@ -3766,7 +3767,7 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B74" t="s">
         <v>106</v>
@@ -3786,7 +3787,7 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B75" t="s">
         <v>107</v>
@@ -3806,7 +3807,7 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B76" t="s">
         <v>108</v>
@@ -3838,7 +3839,7 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B77" t="s">
         <v>110</v>
@@ -3870,7 +3871,7 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B78" t="s">
         <v>112</v>
@@ -3902,7 +3903,7 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B79" t="s">
         <v>114</v>
@@ -3922,7 +3923,7 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B80" t="s">
         <v>115</v>
@@ -3942,7 +3943,7 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B81" t="s">
         <v>0</v>
@@ -4003,7 +4004,7 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B83" t="s">
         <v>121</v>
@@ -4035,7 +4036,7 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B84" t="s">
         <v>123</v>
@@ -4067,7 +4068,7 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B85" t="s">
         <v>125</v>
@@ -4081,7 +4082,7 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B86" t="s">
         <v>126</v>
@@ -4113,7 +4114,7 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B87" t="s">
         <v>128</v>
@@ -4133,7 +4134,7 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B88" t="s">
         <v>129</v>
@@ -4156,7 +4157,7 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B89" t="s">
         <v>130</v>
@@ -4179,7 +4180,7 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B90" t="s">
         <v>133</v>
@@ -4199,7 +4200,7 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B91" t="s">
         <v>84</v>
@@ -4228,7 +4229,7 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B92" t="s">
         <v>33</v>
@@ -4260,7 +4261,7 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B93" t="s">
         <v>101</v>
@@ -4292,7 +4293,7 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B94" t="s">
         <v>139</v>
@@ -4315,7 +4316,7 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B95" t="s">
         <v>140</v>
@@ -4338,7 +4339,7 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B96" t="s">
         <v>141</v>
@@ -4361,7 +4362,7 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B97" t="s">
         <v>142</v>
@@ -4384,7 +4385,7 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B98" t="s">
         <v>143</v>
@@ -4407,7 +4408,7 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B99" t="s">
         <v>144</v>
@@ -4430,7 +4431,7 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B100" t="s">
         <v>145</v>
@@ -4453,7 +4454,7 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B101" t="s">
         <v>146</v>
@@ -4485,7 +4486,7 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B102" t="s">
         <v>149</v>
@@ -4508,7 +4509,7 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B103" t="s">
         <v>150</v>
@@ -4531,7 +4532,7 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B104" t="s">
         <v>151</v>
@@ -4554,7 +4555,7 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B105" t="s">
         <v>152</v>
@@ -4577,7 +4578,7 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B106" t="s">
         <v>153</v>
@@ -4600,7 +4601,7 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B107" t="s">
         <v>154</v>
@@ -4623,7 +4624,7 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B108" t="s">
         <v>154</v>
@@ -4646,7 +4647,7 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B109" t="s">
         <v>155</v>
@@ -4669,7 +4670,7 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B110" t="s">
         <v>156</v>
@@ -4692,7 +4693,7 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B111" t="s">
         <v>157</v>
@@ -4724,7 +4725,7 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B112" t="s">
         <v>159</v>
@@ -4756,7 +4757,7 @@
     </row>
     <row r="113" spans="1:10">
       <c r="A113" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B113" t="s">
         <v>161</v>
@@ -4779,7 +4780,7 @@
     </row>
     <row r="114" spans="1:10">
       <c r="A114" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B114" t="s">
         <v>162</v>
@@ -4802,7 +4803,7 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B115" t="s">
         <v>163</v>
@@ -4825,7 +4826,7 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B116" t="s">
         <v>164</v>
@@ -4848,7 +4849,7 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B117" t="s">
         <v>165</v>
@@ -4871,7 +4872,7 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B118" t="s">
         <v>166</v>
@@ -4894,7 +4895,7 @@
     </row>
     <row r="119" spans="1:10">
       <c r="A119" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B119" t="s">
         <v>167</v>
@@ -4917,7 +4918,7 @@
     </row>
     <row r="120" spans="1:10">
       <c r="A120" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B120" t="s">
         <v>168</v>
@@ -4940,7 +4941,7 @@
     </row>
     <row r="121" spans="1:10">
       <c r="A121" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B121" t="s">
         <v>169</v>
@@ -4963,7 +4964,7 @@
     </row>
     <row r="122" spans="1:10">
       <c r="A122" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B122" t="s">
         <v>170</v>
@@ -4986,7 +4987,7 @@
     </row>
     <row r="123" spans="1:10">
       <c r="A123" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B123" t="s">
         <v>171</v>
@@ -5009,7 +5010,7 @@
     </row>
     <row r="124" spans="1:10">
       <c r="A124" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B124" t="s">
         <v>172</v>
@@ -5032,7 +5033,7 @@
     </row>
     <row r="125" spans="1:10">
       <c r="A125" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B125" t="s">
         <v>173</v>
@@ -5055,7 +5056,7 @@
     </row>
     <row r="126" spans="1:10">
       <c r="A126" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B126" t="s">
         <v>174</v>
@@ -5078,7 +5079,7 @@
     </row>
     <row r="127" spans="1:10">
       <c r="A127" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B127" t="s">
         <v>175</v>
@@ -5101,7 +5102,7 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B128" t="s">
         <v>176</v>
@@ -5124,7 +5125,7 @@
     </row>
     <row r="129" spans="1:10">
       <c r="A129" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B129" t="s">
         <v>177</v>
@@ -5147,7 +5148,7 @@
     </row>
     <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B130" t="s">
         <v>178</v>
@@ -5170,7 +5171,7 @@
     </row>
     <row r="131" spans="1:10">
       <c r="A131" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B131" t="s">
         <v>179</v>
@@ -5193,7 +5194,7 @@
     </row>
     <row r="132" spans="1:10">
       <c r="A132" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B132" t="s">
         <v>180</v>
@@ -5225,7 +5226,7 @@
     </row>
     <row r="133" spans="1:10">
       <c r="A133" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B133" t="s">
         <v>182</v>
@@ -5257,7 +5258,7 @@
     </row>
     <row r="134" spans="1:10">
       <c r="A134" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B134" t="s">
         <v>184</v>
@@ -5280,7 +5281,7 @@
     </row>
     <row r="135" spans="1:10">
       <c r="A135" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B135" t="s">
         <v>185</v>
@@ -5303,7 +5304,7 @@
     </row>
     <row r="136" spans="1:10">
       <c r="A136" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B136" t="s">
         <v>186</v>
@@ -5326,7 +5327,7 @@
     </row>
     <row r="137" spans="1:10">
       <c r="A137" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B137" t="s">
         <v>187</v>
@@ -5355,7 +5356,7 @@
     </row>
     <row r="138" spans="1:10">
       <c r="A138" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B138" t="s">
         <v>189</v>
@@ -5378,7 +5379,7 @@
     </row>
     <row r="139" spans="1:10">
       <c r="A139" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B139" t="s">
         <v>190</v>
@@ -5401,7 +5402,7 @@
     </row>
     <row r="140" spans="1:10">
       <c r="A140" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B140" t="s">
         <v>191</v>
@@ -5424,7 +5425,7 @@
     </row>
     <row r="141" spans="1:10">
       <c r="A141" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B141" t="s">
         <v>192</v>
@@ -5447,7 +5448,7 @@
     </row>
     <row r="142" spans="1:10">
       <c r="A142" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B142" t="s">
         <v>193</v>
@@ -5470,7 +5471,7 @@
     </row>
     <row r="143" spans="1:10">
       <c r="A143" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B143" t="s">
         <v>194</v>
@@ -5493,7 +5494,7 @@
     </row>
     <row r="144" spans="1:10">
       <c r="A144" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B144" t="s">
         <v>195</v>
@@ -5516,7 +5517,7 @@
     </row>
     <row r="145" spans="1:10">
       <c r="A145" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B145" t="s">
         <v>196</v>
@@ -5539,7 +5540,7 @@
     </row>
     <row r="146" spans="1:10">
       <c r="A146" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B146" t="s">
         <v>197</v>
@@ -5562,7 +5563,7 @@
     </row>
     <row r="147" spans="1:10">
       <c r="A147" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B147" t="s">
         <v>198</v>
@@ -5591,7 +5592,7 @@
     </row>
     <row r="148" spans="1:10">
       <c r="A148" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B148" t="s">
         <v>110</v>
@@ -5614,7 +5615,7 @@
     </row>
     <row r="149" spans="1:10">
       <c r="A149" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B149" t="s">
         <v>201</v>
@@ -5646,7 +5647,7 @@
     </row>
     <row r="150" spans="1:10">
       <c r="A150" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B150" t="s">
         <v>203</v>
@@ -5669,7 +5670,7 @@
     </row>
     <row r="151" spans="1:10">
       <c r="A151" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B151" t="s">
         <v>204</v>
@@ -5692,7 +5693,7 @@
     </row>
     <row r="152" spans="1:10">
       <c r="A152" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B152" t="s">
         <v>205</v>
@@ -5715,7 +5716,7 @@
     </row>
     <row r="153" spans="1:10">
       <c r="A153" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B153" t="s">
         <v>206</v>
@@ -5738,7 +5739,7 @@
     </row>
     <row r="154" spans="1:10">
       <c r="A154" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B154" t="s">
         <v>207</v>
@@ -5761,7 +5762,7 @@
     </row>
     <row r="155" spans="1:10">
       <c r="A155" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B155" t="s">
         <v>22</v>
@@ -5784,7 +5785,7 @@
     </row>
     <row r="156" spans="1:10">
       <c r="A156" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B156" t="s">
         <v>23</v>
@@ -5807,7 +5808,7 @@
     </row>
     <row r="157" spans="1:10">
       <c r="A157" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B157" t="s">
         <v>27</v>
@@ -5830,7 +5831,7 @@
     </row>
     <row r="158" spans="1:10">
       <c r="A158" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B158" t="s">
         <v>28</v>
@@ -5853,7 +5854,7 @@
     </row>
     <row r="159" spans="1:10">
       <c r="A159" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B159" t="s">
         <v>29</v>
@@ -5876,7 +5877,7 @@
     </row>
     <row r="160" spans="1:10">
       <c r="A160" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B160" t="s">
         <v>30</v>
@@ -5899,7 +5900,7 @@
     </row>
     <row r="161" spans="1:10">
       <c r="A161" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B161" t="s">
         <v>31</v>
@@ -5922,7 +5923,7 @@
     </row>
     <row r="162" spans="1:10">
       <c r="A162" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B162" t="s">
         <v>32</v>
@@ -5945,7 +5946,7 @@
     </row>
     <row r="163" spans="1:10">
       <c r="A163" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B163" t="s">
         <v>33</v>
@@ -5968,7 +5969,7 @@
     </row>
     <row r="164" spans="1:10">
       <c r="A164" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B164" t="s">
         <v>34</v>
@@ -5982,7 +5983,7 @@
     </row>
     <row r="165" spans="1:10">
       <c r="A165" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B165" t="s">
         <v>35</v>
@@ -6005,7 +6006,7 @@
     </row>
     <row r="166" spans="1:10">
       <c r="A166" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B166" t="s">
         <v>36</v>
@@ -6028,7 +6029,7 @@
     </row>
     <row r="167" spans="1:10">
       <c r="A167" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B167" t="s">
         <v>37</v>
@@ -6051,7 +6052,7 @@
     </row>
     <row r="168" spans="1:10">
       <c r="A168" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B168" t="s">
         <v>38</v>
@@ -6071,7 +6072,7 @@
     </row>
     <row r="169" spans="1:10">
       <c r="A169" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B169" t="s">
         <v>39</v>
@@ -6094,7 +6095,7 @@
     </row>
     <row r="170" spans="1:10">
       <c r="A170" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B170" t="s">
         <v>208</v>
@@ -6117,7 +6118,7 @@
     </row>
     <row r="171" spans="1:10">
       <c r="A171" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B171" t="s">
         <v>40</v>
@@ -6146,7 +6147,7 @@
     </row>
     <row r="172" spans="1:10">
       <c r="A172" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B172" t="s">
         <v>42</v>
@@ -6175,7 +6176,7 @@
     </row>
     <row r="173" spans="1:10">
       <c r="A173" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B173" t="s">
         <v>44</v>
@@ -6198,7 +6199,7 @@
     </row>
     <row r="174" spans="1:10">
       <c r="A174" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B174" t="s">
         <v>209</v>
@@ -6221,7 +6222,7 @@
     </row>
     <row r="175" spans="1:10">
       <c r="A175" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B175" t="s">
         <v>45</v>
@@ -6253,7 +6254,7 @@
     </row>
     <row r="176" spans="1:10">
       <c r="A176" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B176" t="s">
         <v>47</v>
@@ -6276,7 +6277,7 @@
     </row>
     <row r="177" spans="1:10">
       <c r="A177" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B177" t="s">
         <v>48</v>
@@ -6299,7 +6300,7 @@
     </row>
     <row r="178" spans="1:10">
       <c r="A178" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B178" t="s">
         <v>49</v>
@@ -6322,7 +6323,7 @@
     </row>
     <row r="179" spans="1:10">
       <c r="A179" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B179" t="s">
         <v>210</v>
@@ -6345,7 +6346,7 @@
     </row>
     <row r="180" spans="1:10">
       <c r="A180" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B180" t="s">
         <v>50</v>
@@ -6368,7 +6369,7 @@
     </row>
     <row r="181" spans="1:10">
       <c r="A181" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B181" t="s">
         <v>84</v>
@@ -6400,7 +6401,7 @@
     </row>
     <row r="182" spans="1:10">
       <c r="A182" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B182" t="s">
         <v>212</v>
@@ -6423,7 +6424,7 @@
     </row>
     <row r="183" spans="1:10">
       <c r="A183" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B183" t="s">
         <v>213</v>
@@ -6446,7 +6447,7 @@
     </row>
     <row r="184" spans="1:10">
       <c r="A184" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B184" t="s">
         <v>214</v>
@@ -6469,7 +6470,7 @@
     </row>
     <row r="185" spans="1:10">
       <c r="A185" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B185" t="s">
         <v>214</v>
@@ -6492,7 +6493,7 @@
     </row>
     <row r="186" spans="1:10">
       <c r="A186" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B186" t="s">
         <v>216</v>
@@ -6515,7 +6516,7 @@
     </row>
     <row r="187" spans="1:10">
       <c r="A187" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B187" t="s">
         <v>217</v>
@@ -6538,7 +6539,7 @@
     </row>
     <row r="188" spans="1:10">
       <c r="A188" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B188" t="s">
         <v>218</v>
@@ -6561,7 +6562,7 @@
     </row>
     <row r="189" spans="1:10">
       <c r="A189" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B189" t="s">
         <v>219</v>
@@ -6584,7 +6585,7 @@
     </row>
     <row r="190" spans="1:10">
       <c r="A190" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B190" t="s">
         <v>220</v>
@@ -6607,7 +6608,7 @@
     </row>
     <row r="191" spans="1:10">
       <c r="A191" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B191" t="s">
         <v>221</v>
@@ -6630,7 +6631,7 @@
     </row>
     <row r="192" spans="1:10">
       <c r="A192" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B192" t="s">
         <v>222</v>
@@ -6653,7 +6654,7 @@
     </row>
     <row r="193" spans="1:10">
       <c r="A193" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B193" t="s">
         <v>223</v>
@@ -6676,7 +6677,7 @@
     </row>
     <row r="194" spans="1:10">
       <c r="A194" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B194" t="s">
         <v>224</v>
@@ -6699,7 +6700,7 @@
     </row>
     <row r="195" spans="1:10">
       <c r="A195" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B195" t="s">
         <v>225</v>
@@ -6722,7 +6723,7 @@
     </row>
     <row r="196" spans="1:10">
       <c r="A196" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B196" t="s">
         <v>226</v>
@@ -6745,7 +6746,7 @@
     </row>
     <row r="197" spans="1:10">
       <c r="A197" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B197" t="s">
         <v>227</v>
@@ -6768,7 +6769,7 @@
     </row>
     <row r="198" spans="1:10">
       <c r="A198" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B198" t="s">
         <v>126</v>
@@ -6788,7 +6789,7 @@
     </row>
     <row r="199" spans="1:10">
       <c r="A199" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B199" t="s">
         <v>228</v>
@@ -6811,7 +6812,7 @@
     </row>
     <row r="200" spans="1:10">
       <c r="A200" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B200" t="s">
         <v>229</v>
@@ -6834,7 +6835,7 @@
     </row>
     <row r="201" spans="1:10">
       <c r="A201" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B201" t="s">
         <v>230</v>
@@ -6857,7 +6858,7 @@
     </row>
     <row r="202" spans="1:10">
       <c r="A202" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B202" t="s">
         <v>231</v>
@@ -6880,7 +6881,7 @@
     </row>
     <row r="203" spans="1:10">
       <c r="A203" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B203" t="s">
         <v>232</v>
@@ -6903,7 +6904,7 @@
     </row>
     <row r="204" spans="1:10">
       <c r="A204" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B204" t="s">
         <v>233</v>
@@ -6926,7 +6927,7 @@
     </row>
     <row r="205" spans="1:10">
       <c r="A205" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B205" t="s">
         <v>234</v>
@@ -6949,7 +6950,7 @@
     </row>
     <row r="206" spans="1:10">
       <c r="A206" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B206" t="s">
         <v>235</v>
@@ -6969,7 +6970,7 @@
     </row>
     <row r="207" spans="1:10">
       <c r="A207" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B207" t="s">
         <v>236</v>
@@ -6992,7 +6993,7 @@
     </row>
     <row r="208" spans="1:10">
       <c r="A208" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B208" t="s">
         <v>237</v>
@@ -7024,7 +7025,7 @@
     </row>
     <row r="209" spans="1:10">
       <c r="A209" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B209" t="s">
         <v>239</v>
@@ -7047,7 +7048,7 @@
     </row>
     <row r="210" spans="1:10">
       <c r="A210" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B210" t="s">
         <v>240</v>
@@ -7070,7 +7071,7 @@
     </row>
     <row r="211" spans="1:10">
       <c r="A211" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B211" t="s">
         <v>59</v>
@@ -7099,7 +7100,7 @@
     </row>
     <row r="212" spans="1:10">
       <c r="A212" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B212" t="s">
         <v>133</v>
@@ -7122,7 +7123,7 @@
     </row>
     <row r="213" spans="1:10">
       <c r="A213" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B213" t="s">
         <v>244</v>
@@ -7154,7 +7155,7 @@
     </row>
     <row r="214" spans="1:10">
       <c r="A214" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B214" t="s">
         <v>33</v>
@@ -7183,7 +7184,7 @@
     </row>
     <row r="215" spans="1:10">
       <c r="A215" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B215" t="s">
         <v>247</v>
@@ -7215,7 +7216,7 @@
     </row>
     <row r="216" spans="1:10">
       <c r="A216" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B216" t="s">
         <v>249</v>
@@ -7247,7 +7248,7 @@
     </row>
     <row r="217" spans="1:10">
       <c r="A217" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B217" t="s">
         <v>229</v>
@@ -7267,7 +7268,7 @@
     </row>
     <row r="218" spans="1:10">
       <c r="A218" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B218" t="s">
         <v>7</v>
@@ -7287,7 +7288,7 @@
     </row>
     <row r="219" spans="1:10">
       <c r="A219" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B219" t="s">
         <v>6</v>
@@ -7319,7 +7320,7 @@
     </row>
     <row r="220" spans="1:10">
       <c r="A220" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B220" t="s">
         <v>252</v>
@@ -7351,7 +7352,7 @@
     </row>
     <row r="221" spans="1:10">
       <c r="A221" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B221" t="s">
         <v>254</v>
@@ -7383,7 +7384,7 @@
     </row>
     <row r="222" spans="1:10">
       <c r="A222" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B222" t="s">
         <v>84</v>
@@ -7415,7 +7416,7 @@
     </row>
     <row r="223" spans="1:10">
       <c r="A223" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B223" t="s">
         <v>258</v>
@@ -7438,7 +7439,7 @@
     </row>
     <row r="224" spans="1:10">
       <c r="A224" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B224" t="s">
         <v>259</v>
@@ -7461,7 +7462,7 @@
     </row>
     <row r="225" spans="1:10">
       <c r="A225" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B225" t="s">
         <v>260</v>
@@ -7484,7 +7485,7 @@
     </row>
     <row r="226" spans="1:10">
       <c r="A226" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B226" t="s">
         <v>261</v>
@@ -7507,7 +7508,7 @@
     </row>
     <row r="227" spans="1:10">
       <c r="A227" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B227" t="s">
         <v>262</v>
@@ -7536,7 +7537,7 @@
     </row>
     <row r="228" spans="1:10">
       <c r="A228" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B228" t="s">
         <v>264</v>
